--- a/SRC/FlowChart/各別結帳_NCCC/inEVENT_Responder_SETTLE_NCCC.xlsx
+++ b/SRC/FlowChart/各別結帳_NCCC/inEVENT_Responder_SETTLE_NCCC.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>inEVENT_Responder</t>
   </si>
@@ -149,24 +149,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>確認機器狀態，包括是否已下TMS參數和DCC參數(未仔細看過整支程式流程)</t>
-  </si>
-  <si>
-    <t>inNCCC_Func_Check_Txn_Function_When_ECR</t>
-  </si>
-  <si>
     <t>當筆為ECR發動情況下且如果不是聯合_HAPPY GO_交易類別</t>
   </si>
   <si>
     <t>inFLOW_RunFunction(pobTran, _NCCC_FUNCTION_CHECK_TRANS_FUNCTION_FLOW_)</t>
-  </si>
-  <si>
-    <t>inNCCC_Func_Check_Transaction_Function_Flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inNCCC_Func_Check_Transaction_Function_Flow
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>inNCCC_Func_Check_Transaction_Function：
@@ -176,23 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inFunc_GetHostNum_Flow</t>
-  </si>
-  <si>
-    <t>先判斷是否已經選擇過主機。
-判斷條件為特定的 BitOn =true + inLoadHDTRec(0)，或是 srBRec.inHDTIndex 不為 -1。
-若已選定主機，則直接結束流程，並取得 srBRec.lnBatchNum。
-若尚未選擇主機，才進入主機選單處理流程，逐筆讀取每一筆 HDTRec。
-針對每一筆 HDTRec，判斷該筆主機搭配交易類型是否需要顯示在選單中，只有符合條件的資料才會納入選單。
-在建立選單的過程中，同時計算符合條件的主機總筆數，記錄每筆主機在選單中的順序，並組合顯示用的文字內容（主機名稱加上所在的第幾筆）。
-依照主機總筆數，決定畫面上需要顯示的選單項目數，並將各主機選項顯示在螢幕上。
-等待使用者操作，接收觸控點擊或按鍵輸入，依使用者選擇的項目，取得對應的 srBRec.lnBatchNum。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inACCUM_ReviewReport_Total_Settle</t>
-  </si>
-  <si>
     <t>選擇各別交易且主機名是NCCC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,11 +174,6 @@
   </si>
   <si>
     <t>inNCCC_Func_BDAU_Settlement_Check</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客製化設定_CUSTOMER_INDICATOR_042_BDAU1_ 或 _CUSTOMER_INDICATOR_043_BDAU9_進行判斷。
-當符合上述任一客製化條件時，會將pobTran-&gt;inErrorMsg設定為_ERROR_CODE_V3_FUNC_CLOSE_</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -226,7 +190,134 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pobTran-&gt;uszPrePrintBit = VS_TRUE;
+    <t xml:space="preserve"> (暫時沒看code)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果FesMode ==_NCCC_05_ATS_MODE_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">如果TRTFileName == "CREDITTRT" </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果非DCC交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inFLOW_RunFunction(pobTran, _NCCC_ATS_FUNCTION_SET_TXN_ONLINE_OFFLINE_);</t>
+  </si>
+  <si>
+    <t>客製化為_CUSTOMER_INDICATOR_123_IKEA_或_CUSTOMER_INDICATOR_124_EVER_RICH_ 加入提示音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inFunc_DeleteBatch</t>
+  </si>
+  <si>
+    <t>inFunc_PrintTotalReport_ByBuffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inCREDIT_PRINT_TotalReport_ByBuffer_NCCC 列印簽單</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">設定szInvNum為"000001"
+inSetInvoiceNum(szInvNum):  設定srHDPTRec.szInvoiceNum   為"000001"
+inSetTicket_InvNum(szInvNum):設定srHDPTRec.szTicket_InvNum為"000001"
+inSetCLS_SettleBit("N"):  設定srHDPTRec.szCLS_SettleBit為"N"
+inSaveHDPTRec(pobTran-&gt;srBRec.inHDTIndex):新增或修改上述更新值
+inNCCC_Func_Sync_Reset_InvoiceNumber:同步NCCC和DCC和HG的invoice Number回歸到000001
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ginNCCCDCCInvoice = 0;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+inNCCC_Func_Settlement_XML_Edit(_SETTLENMENT_RECOVER_XML_TAG_FUNCTION_REST_BATCH_INV_, "Y");
+開啟根目錄底下的xml檔案，讀檔案並取得根節點，
+遞迴找到每個節點的名稱是_SETTLENMENT_RECOVER_XML_TAG_FUNCTION_REST_BATCH_INV_，更新值為'Y'</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inFunc_UpdateBatchNum</t>
+  </si>
+  <si>
+    <t>inNCCC_Func_Display_Please_LOGON_First_Only_ISO</t>
+  </si>
+  <si>
+    <t>TMS下載模式是TMS，執行inFLOW_RunFunction(pobTran, _NCCC_FUNCTION_DISPLAY_PLEASE_LOGON_FIRST_);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_Func_BuildAndSendPacket_Flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>確認機器狀態，包括是否已下TMS參數和DCC參數(未仔細看過整支程式流程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_ESC_Func_Upload_Settle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>客製化設定_CUSTOMER_INDICATOR_042_BDAU1_ 或 _CUSTOMER_INDICATOR_043_BDAU9_進行判斷。
+當符合上述任一客製化條件時，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pobTran-&gt;inErrorMsg = _ERROR_CODE_V3_FUNC_CLOSE_;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_Func_Check_Txn_Function_When_ECR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_Func_Check_Transaction_Function_Flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inFunc_GetHostNum_Flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inRetVal = inFLOW_RunFunction(pobTran, _FUNCTION_GET_HOST_NUM_NEWUI_);</t>
+  </si>
+  <si>
+    <t>pobTran-&gt;uszPrePrintBit = VS_TRUE;(pobTran-&gt;uszPrePrintBit  是針對下面的客製化會用到)
 如果客製化是_CUSTOMER_INDICATOR_098_MCDONALDS_或_CUSTOMER_INDICATOR_105_MCDONALDS_
 {
   inFLOW_RunFunction(pobTran, _FUNCTION_PRINT_TOTAL_REPORT_BY_BUFFER_);          
@@ -236,65 +327,134 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">如果是連動交易，直接跳過選主機流程。
+如果是個別交易
+    若已選定主機，則直接結束流程，
+    反之，呼叫inGetBatchNum(szBatchNum);。
+    取得 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pobTran-&gt;srBRec.lnBatchNum = atol(szBatchNum);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    若尚未選擇主機，才進入主機選單處理流程，逐筆讀取每一筆 HDTRec，
+    螢幕顯示每個主機及順序的項目，並等待使用者操作，接收觸控點擊或按鍵輸入，
+    選擇哪個主機項目做結帳。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inACCUM_ReviewReport_Total_Settle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>inACCUM_GetRecord:
- 讀取檔名為NCCC + BATCHNUM 的檔案，取得銷售、退貨、淨額 總筆數+ 總金額
+讀取檔名為NCCC + BATCHNUM 的檔案，取得銷售、退貨、淨額 總筆數+ 總金額。
 等待按鍵/點擊事件:
- 按下數字零或點擊_BATCH_END_Touch_ENTER_BUTTON_確認結帳交易</t>
+按下數字零或點擊_BATCH_END_Touch_ENTER_BUTTON_確認結帳交易。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/*
+ &lt;END&gt;   
+*/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_Func_Check_Transaction_Function_Flow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>inNCCC_Func_Check_Transaction_Function：
-透過 inLoadHDTRec(0) 載入 HDT 資料，並呼叫 inGetTransFunc 取得交易功能參數，依據交易類型進行比對，判斷該交易功能是否有開啟。
+透過 inLoadHDTRec(0) 載入 HDT 資料，並呼叫 inGetTransFunc 取得交易功能參數，
+依據交易類型進行比對，判斷該交易功能是否有開啟。
 inNCCC_Func_Check_Transaction_Function_Award：
 同樣是依交易類型與其他判斷 交易功能是否有開啟。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inNCCC_ESC_Func_Upload_Settle</t>
+    <t>inFunc_PrePrintReport_Auto_ByBuffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> (暫時沒看code)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inFunc_PrePrintReport_Auto_ByBuffer</t>
-  </si>
-  <si>
-    <t>如果是各別交易就不做事</t>
+    <r>
+      <t xml:space="preserve">如果是各別交易就不做事 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(暫時沒看code)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>inNCCC_Func_SetTxnOnlineOffline_Flow</t>
-  </si>
-  <si>
-    <t>如果FesMode ==_NCCC_05_ATS_MODE_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">如果TRTFileName == "CREDITTRT" </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果非DCC交易</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inFLOW_RunFunction(pobTran, _NCCC_ATS_FUNCTION_SET_TXN_ONLINE_OFFLINE_);</t>
-  </si>
-  <si>
-    <t>pobTran-&gt;srBRec.uszOfflineBit = VS_FALSE; /* 當筆交易要 Online */
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/*
+ &lt;BEGIN&gt;   
+  inEVENT_Run_Normal_TRT(&amp;pobTran); &gt;  
+  TRANSACTION_NCCC_ATS_TABLE[] ={_TRT_SETTLE_,    SETTLE_TRT_NCCC_ATS_TABLE}
+*/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pobTran-&gt;srBRec.uszOfflineBit = VS_FALSE; /* 當筆交易要 Online */
 pobTran-&gt;srBRec.uszUpload1Bit = VS_FALSE; /* 不會產生任何 Advice */
 pobTran-&gt;srBRec.uszUpload2Bit = VS_FALSE; /* 不會產生任何 Advice */
 pobTran-&gt;srBRec.uszUpload3Bit = VS_FALSE; /* 不會產生任何 Advice */
 pobTran-&gt;uszReversalBit = VS_FALSE;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inNCCC_Func_BuildAndSendPacket_Flow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inNCCC_Func_Settlement_XML_NCCC_START</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(offline交易及settle不需要做reversal)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -302,39 +462,146 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客製化為_CUSTOMER_INDICATOR_123_IKEA_或_CUSTOMER_INDICATOR_124_EVER_RICH_ 加入提示音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>inFunc_DeleteBatch_Flow</t>
-  </si>
-  <si>
-    <t>inFunc_DeleteBatch</t>
-  </si>
-  <si>
-    <t>inNCCC_Func_Delete_Signature_By_Shell_Command:
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inFunc_DeleteAccum_Flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先執行inFunc_DeleteAccum:
+    螢幕提示正在刪除批次檔，進行刪除檔案(檔案:主機名+批次號+.amt)，
+判斷如果是NCCC主機要額外找HDT.dat的HG主機index，
+pobTran-&gt;srBRec.inHDTIndex = inHGIndex;
+inLoadHDTRec(pobTran-&gt;srBRec.inHDTIndex);
+inLoadHDPTRec(pobTran-&gt;srBRec.inHDTIndex);
+如果開啟主機功能開關，則inFunc_DeleteAccum刪除批次檔案。
+inNCCC_Func_Settlement_XML_Edit(_SETTLENMENT_RECOVER_XML_TAG_FUNCTION_DELETE_ACCUM_FLOW_, "Y");
+開啟根目錄底下的xml檔案，讀檔案並取得根節點，
+遞迴找到每個節點的名稱是_SETTLENMENT_RECOVER_XML_TAG_FUNCTION_DELETE_ACCUM_FLOW_，更新值為'Y'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inFunc_ResetBatchInvNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讀取當前批次號
+先從 HDPT 讀取目前的批次號，然後把它加 1。
+檢查批次號是否超過上限
+如果加完後的批次號超過限制，就把它重設成 1，然後把新的批次號更新回資料庫。
+判斷交易類型
+如果這不是連動交易（也就是各別交易的情況）：
+    檢查當前主機是不是 NCCC 或 DCC:
+        inNCCC_DCC_Sync_BatchNumber:
+            檢查 HDT.dat 檔案，確認 NCCC 和 DCC 的主機是否都存在，取得各自的批次號，比對批次號決定哪個主機要先結帳，
+            如果要先結帳的是 NCCC，程式會再檢查 DCC 是否已經有批次檔案存在，如果 DCC 已經有帳，代表它還沒結帳完成，
+            程式就會把一個「必須結帳」的旗標設定成 "Y"，提醒後續流程這個狀態。
+        inHG_Func_Sync_BatchNumber:
+            檢查 HDT.dat 檔案，確認 NCCC 和 HG 的主機是否都存在，取得各自的批次號，設定HG的批次號為NCCC的批次號。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_Func_Display_Please_LOGON_First:
+提示請先安全結帳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">螢幕提示刪除批次請勿關機
+inNCCC_Func_Delete_Signature_By_Shell_Command:
 find 指令在指定目錄中搜尋符合條件的 BMP 圖檔，並將其刪除。
-Delete REVERSAL、ADVICE、ADVICE ESC等batch file
+Delete File and Drop Table  
+如果是NCCC要多砍優惠平台檔案和HappyGo的帳
+    pobTranTemp.uszFileNameNoNeedHostBit = VS_TRUE;
+    pobTranTemp.uszFileNameNoNeedNumBit = VS_TRUE;
+    inSqlite_Drop_Table_Flow(&amp;pobTranTemp, _TN_BATCH_TABLE_ESC_TEMP_);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pobTranTemp.uszFileNameNoNeedHostBit = VS_FALSE;
+   pobTranTemp.uszFileNameNoNeedNumBit = VS_FALSE;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 inSetMustSettleBit("N");
 inSaveHDPTRec(pobTranTemp.srBRec.inHDTIndex);
 inSetCLS_SettleBit("N");
 inSaveHDPTRec(pobTranTemp.srBRec.inHDTIndex);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inFunc_PrintTotalReport_ByBuffer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inCREDIT_PRINT_TotalReport_ByBuffer_NCCC 列印簽單</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>當主機為 NCCC 時，系統會先呼叫inFunc_Find_Specific_HDTindex檢查是否存在對應的 inHGIndex。
 若成功找到 inHGIndex，會依該索引執行loadFile(inHGIndex)載入相關主機設定資料。
 進一步判斷該主機功能是否已開啟，若功能確認為開啟狀態，則會進行對應的批次資料刪除處理。
-如果inRunTRTID == _TRT_SETTLE_，執行inNCCC_Func_Settlement_XML_Edit(_SETTLENMENT_RECOVER_XML_TAG_FUNCTION_DELETE_BATCH_FLOW_, "Y");
-標記為已做過</t>
+如果inRunTRTID == _TRT_SETTLE_，
+執行inNCCC_Func_Settlement_XML_Edit(_SETTLENMENT_RECOVER_XML_TAG_FUNCTION_DELETE_BATCH_FLOW_, "Y");
+開啟根目錄底下的xml檔案，讀檔案並取得根節點，
+遞迴找到每個節點的名稱是_SETTLENMENT_RECOVER_XML_TAG_FUNCTION_DELETE_BATCH_FLOW_，更新值為'Y'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_Func_Settlement_XML_NCCC_START</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_Func_Settlement_XML_NCCC_END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>產生Settlement_Check_NCCC.xml檔案，內容:
+&lt;?xml version="1.0" encoding="UTF-8"?&gt;
+&lt;StepBool&gt; 
+ &lt;inSaleUploadCnt&gt;
+  pobTran-&gt;inESC_Sale_UploadCnt
+ &lt;/inSaleUploadCnt&gt;
+ &lt;inESC_Refund_UploadCnt&gt;
+  pobTran-&gt;inESC_Refund_UploadCnt
+ &lt;/inESC_Refund_UploadCnt&gt;
+ &lt;inESC_Sale_PaperCnt&gt;
+  pobTran-&gt;inESC_Sale_PaperCnt
+ &lt;/inESC_Sale_PaperCnt&gt;
+ .....
+&lt;/StepBool&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inFile_Unlink_File:
+inRetVal = unlink(  檔案(  ./ +  Settlement_Check_NCCC.xml )  );
+Note:
+unlink 會 從檔案系統中刪除檔名。
+如果檔案之前有任何 開啟的檔案描述字（fd），即使呼叫了 unlink，程式仍然可以透過這些 fd 讀寫檔案。
+只有當 所有 fd 都關閉 且檔名已被刪除後，檔案的內容才會被系統釋放，檔案才算真正被刪除。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -342,7 +609,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,6 +639,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -393,12 +693,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -679,21 +988,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="C67" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="107.625" customWidth="1"/>
-    <col min="3" max="3" width="122.125" customWidth="1"/>
+    <col min="3" max="3" width="132.875" customWidth="1"/>
     <col min="4" max="4" width="91.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="83.75" customWidth="1"/>
     <col min="6" max="6" width="91.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="72" customWidth="1"/>
+    <col min="7" max="7" width="76.75" customWidth="1"/>
     <col min="8" max="8" width="49.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="68.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -749,7 +1058,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="270" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -760,131 +1069,129 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="30" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E20" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="90" x14ac:dyDescent="0.3">
       <c r="F21" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="30" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="225" x14ac:dyDescent="0.3">
-      <c r="C26" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="120" x14ac:dyDescent="0.3">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="150" x14ac:dyDescent="0.3">
+      <c r="D27" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="29" spans="2:6" ht="105" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
-        <v>22</v>
+      <c r="B30" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="60" x14ac:dyDescent="0.3">
-      <c r="E32" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="90" x14ac:dyDescent="0.3">
-      <c r="C34" s="1" t="s">
-        <v>32</v>
+    <row r="33" spans="2:7" ht="75" x14ac:dyDescent="0.3">
+      <c r="E33" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="45" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C36" s="2" t="s">
-        <v>34</v>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:7" ht="75" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C38" t="s">
-        <v>36</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="90" x14ac:dyDescent="0.3">
+      <c r="C38" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
@@ -893,92 +1200,173 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C40" t="s">
-        <v>39</v>
+      <c r="C40" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D41" t="s">
-        <v>38</v>
+      <c r="B41" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E42" t="s">
-        <v>40</v>
+      <c r="C42" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" ht="75" x14ac:dyDescent="0.3">
-      <c r="G44" s="1" t="s">
-        <v>42</v>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>43</v>
+      <c r="D45" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C46" s="2" t="s">
-        <v>34</v>
+      <c r="E46" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C48" s="2" t="s">
-        <v>34</v>
+      <c r="F47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="75" x14ac:dyDescent="0.3">
+      <c r="G48" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C50" t="s">
-        <v>46</v>
+      <c r="C50" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C52" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" ht="105" x14ac:dyDescent="0.3">
-      <c r="D53" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" ht="90" x14ac:dyDescent="0.3">
-      <c r="C54" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="300" x14ac:dyDescent="0.3">
+      <c r="C52" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
-        <v>51</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="285" x14ac:dyDescent="0.3">
+      <c r="D57" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" ht="120" x14ac:dyDescent="0.3">
+      <c r="C58" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" ht="150" x14ac:dyDescent="0.3">
+      <c r="C62" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" ht="165" x14ac:dyDescent="0.3">
+      <c r="C64" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" ht="225" x14ac:dyDescent="0.3">
+      <c r="C66" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" ht="90" x14ac:dyDescent="0.3">
+      <c r="C68" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="D71" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" ht="45" x14ac:dyDescent="0.3">
+      <c r="B72" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SRC/FlowChart/各別結帳_NCCC/inEVENT_Responder_SETTLE_NCCC.xlsx
+++ b/SRC/FlowChart/各別結帳_NCCC/inEVENT_Responder_SETTLE_NCCC.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>inEVENT_Responder</t>
   </si>
@@ -80,14 +80,6 @@
   </si>
   <si>
     <t>inMENU_SETTLE_BY_HOST(srEventMenuItem);</t>
-  </si>
-  <si>
-    <t>srEventMenuItem-&gt;inPasswordLevel = _ACCESS_WITH_CUSTOM_;
-srEventMenuItem-&gt;inCode = _SETTLE_;
-inFunc_CheckCustomizePassword(srEventMenuItem-&gt;inPasswordLevel, srEventMenuItem-&gt;inCode) 輸入密碼
-srEventMenuItem-&gt;inRunOperationID = _OPERATION_SETTLE_;
-srEventMenuItem-&gt;inRunTRTID = _TRT_SETTLE_;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -190,10 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> (暫時沒看code)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如果FesMode ==_NCCC_05_ATS_MODE_</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,15 +259,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inNCCC_Func_BuildAndSendPacket_Flow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>確認機器狀態，包括是否已下TMS參數和DCC參數(未仔細看過整支程式流程)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inNCCC_ESC_Func_Upload_Settle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -315,16 +295,6 @@
   </si>
   <si>
     <t>inRetVal = inFLOW_RunFunction(pobTran, _FUNCTION_GET_HOST_NUM_NEWUI_);</t>
-  </si>
-  <si>
-    <t>pobTran-&gt;uszPrePrintBit = VS_TRUE;(pobTran-&gt;uszPrePrintBit  是針對下面的客製化會用到)
-如果客製化是_CUSTOMER_INDICATOR_098_MCDONALDS_或_CUSTOMER_INDICATOR_105_MCDONALDS_
-{
-  inFLOW_RunFunction(pobTran, _FUNCTION_PRINT_TOTAL_REPORT_BY_BUFFER_);          
-  inFLOW_RunFunction(pobTran, _FUNCTION_PRINT_DETAIL_REPORT_BY_BUFFER_);
-}
-pobTran-&gt;uszPrePrintBit = VS_FALSE;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -392,28 +362,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inFunc_PrePrintReport_Auto_ByBuffer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> (暫時沒看code)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">如果是各別交易就不做事 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(暫時沒看code)</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -602,6 +551,193 @@
 unlink 會 從檔案系統中刪除檔名。
 如果檔案之前有任何 開啟的檔案描述字（fd），即使呼叫了 unlink，程式仍然可以透過這些 fd 讀寫檔案。
 只有當 所有 fd 都關閉 且檔名已被刪除後，檔案的內容才會被系統釋放，檔案才算真正被刪除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">pobTran-&gt;uszPrePrintBit = VS_TRUE;(pobTran-&gt;uszPrePrintBit  是針對下面的客製化會用到)
+如果客製化是_CUSTOMER_INDICATOR_098_MCDONALDS_或_CUSTOMER_INDICATOR_105_MCDONALDS_
+{
+  inFLOW_RunFunction(pobTran, _FUNCTION_PRINT_TOTAL_REPORT_BY_BUFFER_);          
+  inFLOW_RunFunction(pobTran, _FUNCTION_PRINT_DETAIL_REPORT_BY_BUFFER_);
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pobTran-&gt;uszPrePrintBit = VS_FALSE;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>srEventMenuItem-&gt;inPasswordLevel = _ACCESS_WITH_CUSTOM_;
+srEventMenuItem-&gt;inCode = _SETTLE_;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+inFunc_CheckCustomizePassword(srEventMenuItem-&gt;inPasswordLevel, srEventMenuItem-&gt;inCode) 輸入密碼
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>srEventMenuItem-&gt;inRunOperationID = _OPERATION_SETTLE_;
+srEventMenuItem-&gt;inRunTRTID = _TRT_SETTLE_;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>szTRTFileName = _TRT_FILE_NAME_CREDIT_ and szFesMode = _NCCC_05_ATS_MODE_ 
+inRetVal = inFLOW_RunFunction(pobTran, _NCCC_MFES_FUNCTION_BUILD_AND_SEND_PACKET_);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_Func_BuildAndSendPacket_Flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">結帳會先檢查有"有效交易筆數"(inBATCH_GetTotalCountFromBakFile_By_Sqlite取得有效交易筆數)，
+inNCCC_ATS_SetMustSettleBit(pobTran, "Y")，設定是否結帳的Flag為'Y'。
+inNCCC_ATS_GetSTAN:
+    call inGetSTANNum(szSTANNum)取得stan number，pobTran-&gt;srBRec.lnSTANNum = atol(szSTANNum)。
+處理Online交易:
+    inNCCC_ATS_ProcessReversal:
+        因為HDPT的szSendReversalBit = 'N'，
+        inNCCC_ATS_Func_SetTxnOnlineOffline()會設定pobTran-&gt;uszReversalBit = VS_FALSE，
+       所以這支程式不做事
+   交易類型是結帳
+       inNCCC_ATS_ProcessAdvice:
+           inADVICE_GetTotalCount:
+              看起來是檔案的總筆數(inAdvCnt)
+              inNCCC_ATS_AdviceSendRecvPacket:
+              先設定 ADVpobTran.inISOTxnCode，
+              inNCCC_ATS_SendPackRecvUnPack:
+                   inNCCC_ATS_PackISO: 組ISO電文
+                   inNCCC_ATS_CommSendRecvToHost: 傳送及接收電文
+                   inNCCC_ATS_UnPackISO: 解 ISO 電文
+                   inNCCC_ATS_ISOAdviceAnalyse:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                      pobTran-&gt;srBRec.uszUpload1Bit = VS_FALSE;
+                      pobTran-&gt;srBRec.uszUpload2Bit = VS_FALSE;
+                      pobTran-&gt;srBRec.uszUpload3Bit = VS_FALSE;
+                      pobTran-&gt;uszUpdateBatchBit = VS_TRUE;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                          (有些BitOn不知道在哪被設定，所以這部分沒有到很確定)
+       inNCCC_ATS_ProcessAdvice_ESC:
+             粗略看過去與上述的inNCCC_ATS_ProcessAdvice類似
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  pobTran-&gt;inTransactionCode = _SETTLE_;
+  pobTran-&gt;srBRec.inCode = _SETTLE_;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ inNCCC_ATS_ProcessOnline:
+      pobTran-&gt;inISOTxnCode = pobTran-&gt;inTransactionCode;
+      inNCCC_ATS_SendPackRecvUnPack:
+           inNCCC_ATS_PackISO:組 ISO 電文
+           inNCCC_ATS_CommSendRecvToHost:傳送及接收 ISO 電文 
+           inNCCC_ATS_UnPackISO:解 ISO 電文</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inFunc_PrePrintReport_Auto_ByBuffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">連動交易情況下:
+pobTran-&gt;uszPrePrintBit = VS_TRUE;
+針對客製化去列印簽單動作?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pobTran-&gt;uszPrePrintBit = VS_FALSE;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_ESC_Func_Upload_Settle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -988,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C67" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -999,10 +1135,10 @@
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="107.625" customWidth="1"/>
     <col min="3" max="3" width="132.875" customWidth="1"/>
-    <col min="4" max="4" width="91.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="107" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="83.75" customWidth="1"/>
     <col min="6" max="6" width="91.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="76.75" customWidth="1"/>
+    <col min="7" max="7" width="85.625" customWidth="1"/>
     <col min="8" max="8" width="49.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="68.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -1044,7 +1180,7 @@
     </row>
     <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.3">
       <c r="G8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1052,128 +1188,128 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.3">
-      <c r="I10" s="1" t="s">
-        <v>8</v>
+    <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.3">
+      <c r="I10" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="270" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E20" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="90" x14ac:dyDescent="0.3">
       <c r="F21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="30" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="150" x14ac:dyDescent="0.3">
       <c r="D27" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="105" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="75" x14ac:dyDescent="0.3">
       <c r="E33" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="45" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
@@ -1181,187 +1317,193 @@
     </row>
     <row r="36" spans="2:7" ht="75" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="90" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C40" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C42" t="s">
-        <v>52</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="60" x14ac:dyDescent="0.3">
+      <c r="C42" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F47" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="75" x14ac:dyDescent="0.3">
       <c r="G48" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C50" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="300" x14ac:dyDescent="0.3">
-      <c r="C52" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
+    <row r="50" spans="2:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="300" x14ac:dyDescent="0.3">
+      <c r="C53" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" ht="285" x14ac:dyDescent="0.3">
+      <c r="D58" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C54" t="s">
+    <row r="59" spans="2:4" ht="120" x14ac:dyDescent="0.3">
+      <c r="C59" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C56" t="s">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="2:4" ht="285" x14ac:dyDescent="0.3">
-      <c r="D57" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" ht="120" x14ac:dyDescent="0.3">
-      <c r="C58" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" ht="150" x14ac:dyDescent="0.3">
+      <c r="C63" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="165" x14ac:dyDescent="0.3">
+      <c r="C65" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C60" t="s">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" ht="150" x14ac:dyDescent="0.3">
-      <c r="C62" s="1" t="s">
+    <row r="67" spans="2:4" ht="225" x14ac:dyDescent="0.3">
+      <c r="C67" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" ht="165" x14ac:dyDescent="0.3">
-      <c r="C64" s="1" t="s">
+    <row r="69" spans="2:4" ht="90" x14ac:dyDescent="0.3">
+      <c r="C69" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="2:4" ht="225" x14ac:dyDescent="0.3">
-      <c r="C66" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" ht="90" x14ac:dyDescent="0.3">
-      <c r="C68" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C70" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" ht="30" x14ac:dyDescent="0.3">
-      <c r="D71" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" ht="45" x14ac:dyDescent="0.3">
-      <c r="B72" s="1" t="s">
-        <v>47</v>
+    <row r="72" spans="2:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="D72" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" ht="45" x14ac:dyDescent="0.3">
+      <c r="B73" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
